--- a/COSC 528/Project 2/Figures/formatted_tables.xlsx
+++ b/COSC 528/Project 2/Figures/formatted_tables.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAN\Research\COSC 528\Project 2\Figures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE09333-E29E-42CB-9396-F9995128E48A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{126D1679-85AB-42F1-BE45-07105F0AD56B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">  Carm R1</t>
   </si>
@@ -81,9 +78,6 @@
     <t xml:space="preserve">  Wall St. Jourl Rank</t>
   </si>
   <si>
-    <t xml:space="preserve">  Total Degrees</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Total Expend</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t xml:space="preserve">  Student Services Expenditures</t>
   </si>
   <si>
-    <t xml:space="preserve">  Endowment per Student FTE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> % Hisp Total Students</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t xml:space="preserve"> 2017 US News top 65</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total Enroll</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IPEDS#</t>
   </si>
   <si>
@@ -217,13 +205,25 @@
   </si>
   <si>
     <t xml:space="preserve"> Endowment / St. FTE</t>
+  </si>
+  <si>
+    <t>Feature Labels</t>
+  </si>
+  <si>
+    <t>Total Degrees</t>
+  </si>
+  <si>
+    <t>Total Enroll</t>
+  </si>
+  <si>
+    <t>Endowment per Student FTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,33 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -255,29 +282,266 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="39">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -388,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -582,269 +846,485 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADC6947-D406-4673-947B-C4DFF2464633}">
-  <dimension ref="E3:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+    <row r="2" spans="4:9">
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="4:9">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>44</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9">
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="11">
+        <v>45</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11">
+        <v>25</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="11">
+        <v>46</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9">
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>47</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11">
+        <v>48</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11">
+        <v>49</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="I9" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11">
+        <v>30</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="11">
+        <v>51</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="11">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11">
+        <v>52</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11">
+        <v>32</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11">
+        <v>53</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="D13" s="11">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11">
+        <v>33</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H13" s="11">
+        <v>54</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="D14" s="11">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="11">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H14" s="11">
+        <v>55</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="D15" s="11">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="11">
+        <v>35</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="11">
+        <v>56</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="D16" s="11">
+        <v>14</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="11">
+        <v>36</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="11">
+        <v>57</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="11">
+        <v>15</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="11">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="11">
+        <v>58</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="11">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="11">
+        <v>38</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="11">
+        <v>59</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="11">
+        <v>17</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="11">
+        <v>39</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="11">
+        <v>60</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="11">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="11">
+        <v>40</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="11">
+        <v>61</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="11">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="11">
+        <v>41</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="11">
+        <v>62</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="11">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="11">
+        <v>42</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="11">
+        <v>63</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="11">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="11">
+        <v>43</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="11">
+        <v>64</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="15">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>